--- a/src/assets/templates/add_new_drug.xlsx
+++ b/src/assets/templates/add_new_drug.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -69,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
@@ -81,6 +81,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,15 +391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1301"/>
+  <dimension ref="A1:D1197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -401,7 +407,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4002,323 +4008,13 @@
     <row r="1197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D1197" s="3"/>
     </row>
-    <row r="1198" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1198" s="3"/>
-    </row>
-    <row r="1199" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1199" s="3"/>
-    </row>
-    <row r="1200" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1200" s="3"/>
-    </row>
-    <row r="1201" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1201" s="3"/>
-    </row>
-    <row r="1202" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1202" s="3"/>
-    </row>
-    <row r="1203" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1203" s="3"/>
-    </row>
-    <row r="1204" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1204" s="3"/>
-    </row>
-    <row r="1205" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1205" s="3"/>
-    </row>
-    <row r="1206" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1206" s="3"/>
-    </row>
-    <row r="1207" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1207" s="3"/>
-    </row>
-    <row r="1208" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1208" s="3"/>
-    </row>
-    <row r="1209" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1209" s="3"/>
-    </row>
-    <row r="1210" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1210" s="3"/>
-    </row>
-    <row r="1211" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1211" s="3"/>
-    </row>
-    <row r="1212" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1212" s="3"/>
-    </row>
-    <row r="1213" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1213" s="3"/>
-    </row>
-    <row r="1214" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1214" s="3"/>
-    </row>
-    <row r="1215" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1215" s="3"/>
-    </row>
-    <row r="1216" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1216" s="3"/>
-    </row>
-    <row r="1217" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1217" s="3"/>
-    </row>
-    <row r="1218" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1218" s="3"/>
-    </row>
-    <row r="1219" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1219" s="3"/>
-    </row>
-    <row r="1220" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1220" s="3"/>
-    </row>
-    <row r="1221" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1221" s="3"/>
-    </row>
-    <row r="1222" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1222" s="3"/>
-    </row>
-    <row r="1223" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1223" s="3"/>
-    </row>
-    <row r="1224" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1224" s="3"/>
-    </row>
-    <row r="1225" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1225" s="3"/>
-    </row>
-    <row r="1226" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1226" s="3"/>
-    </row>
-    <row r="1227" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1227" s="3"/>
-    </row>
-    <row r="1228" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1228" s="3"/>
-    </row>
-    <row r="1229" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1229" s="3"/>
-    </row>
-    <row r="1230" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1230" s="3"/>
-    </row>
-    <row r="1231" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1231" s="3"/>
-    </row>
-    <row r="1232" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1232" s="3"/>
-    </row>
-    <row r="1233" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1233" s="3"/>
-    </row>
-    <row r="1234" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1234" s="3"/>
-    </row>
-    <row r="1235" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1235" s="3"/>
-    </row>
-    <row r="1236" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1236" s="3"/>
-    </row>
-    <row r="1237" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1237" s="3"/>
-    </row>
-    <row r="1238" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1238" s="3"/>
-    </row>
-    <row r="1239" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1239" s="3"/>
-    </row>
-    <row r="1240" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1240" s="3"/>
-    </row>
-    <row r="1241" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1241" s="3"/>
-    </row>
-    <row r="1242" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1242" s="3"/>
-    </row>
-    <row r="1243" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1243" s="3"/>
-    </row>
-    <row r="1244" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1244" s="3"/>
-    </row>
-    <row r="1245" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1245" s="3"/>
-    </row>
-    <row r="1246" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1246" s="3"/>
-    </row>
-    <row r="1247" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1247" s="3"/>
-    </row>
-    <row r="1248" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1248" s="3"/>
-    </row>
-    <row r="1249" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1249" s="3"/>
-    </row>
-    <row r="1250" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1250" s="3"/>
-    </row>
-    <row r="1251" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1251" s="3"/>
-    </row>
-    <row r="1252" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1252" s="3"/>
-    </row>
-    <row r="1253" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1253" s="3"/>
-    </row>
-    <row r="1254" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1254" s="3"/>
-    </row>
-    <row r="1255" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1255" s="3"/>
-    </row>
-    <row r="1256" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1256" s="3"/>
-    </row>
-    <row r="1257" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1257" s="3"/>
-    </row>
-    <row r="1258" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1258" s="3"/>
-    </row>
-    <row r="1259" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1259" s="3"/>
-    </row>
-    <row r="1260" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1260" s="3"/>
-    </row>
-    <row r="1261" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1261" s="3"/>
-    </row>
-    <row r="1262" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1262" s="3"/>
-    </row>
-    <row r="1263" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1263" s="3"/>
-    </row>
-    <row r="1264" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1264" s="3"/>
-    </row>
-    <row r="1265" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1265" s="3"/>
-    </row>
-    <row r="1266" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1266" s="3"/>
-    </row>
-    <row r="1267" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1267" s="3"/>
-    </row>
-    <row r="1268" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1268" s="3"/>
-    </row>
-    <row r="1269" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1269" s="3"/>
-    </row>
-    <row r="1270" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1270" s="3"/>
-    </row>
-    <row r="1271" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1271" s="3"/>
-    </row>
-    <row r="1272" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1272" s="3"/>
-    </row>
-    <row r="1273" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1273" s="3"/>
-    </row>
-    <row r="1274" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1274" s="3"/>
-    </row>
-    <row r="1275" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1275" s="3"/>
-    </row>
-    <row r="1276" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1276" s="3"/>
-    </row>
-    <row r="1277" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1277" s="3"/>
-    </row>
-    <row r="1278" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1278" s="3"/>
-    </row>
-    <row r="1279" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1279" s="3"/>
-    </row>
-    <row r="1280" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1280" s="3"/>
-    </row>
-    <row r="1281" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1281" s="3"/>
-    </row>
-    <row r="1282" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1282" s="3"/>
-    </row>
-    <row r="1283" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1283" s="3"/>
-    </row>
-    <row r="1284" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1284" s="3"/>
-    </row>
-    <row r="1285" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1285" s="3"/>
-    </row>
-    <row r="1286" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1286" s="3"/>
-    </row>
-    <row r="1287" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1287" s="3"/>
-    </row>
-    <row r="1288" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1288" s="3"/>
-    </row>
-    <row r="1289" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1289" s="3"/>
-    </row>
-    <row r="1290" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1290" s="3"/>
-    </row>
-    <row r="1291" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1291" s="3"/>
-    </row>
-    <row r="1292" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1292" s="3"/>
-    </row>
-    <row r="1293" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1293" s="3"/>
-    </row>
-    <row r="1294" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1294" s="3"/>
-    </row>
-    <row r="1295" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1295" s="3"/>
-    </row>
-    <row r="1296" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1296" s="3"/>
-    </row>
-    <row r="1297" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1297" s="3"/>
-    </row>
-    <row r="1298" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1298" s="3"/>
-    </row>
-    <row r="1299" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1299" s="3"/>
-    </row>
-    <row r="1300" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1300" s="3"/>
-    </row>
-    <row r="1301" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1301" s="3"/>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bbBEQuiP6Y0JU8BBMY8/bKz2fQEgopS9QHMAmHVEI1yFaZY7haMKe49wOJbYqccY1ZBmzqdMLJteN17koi2mxA==" saltValue="k1zfUFWDuz86NqciHTFMZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Drug Form" prompt="Select form" sqref="D2:D1301">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Drug Form" prompt="Select form" sqref="D760:D1197">
       <formula1>"Syrup,Tablet, Capsule, Powder, Injectable, Cream, Gel, Lotion, Liquid, Inhaler, Raspules"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D759">
+      <formula1>"Syp,Tab,Cap,Pow,Inj,Crm,Gel,Lot,Liq,Inh,Ras"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
